--- a/online_job_postings.xlsx
+++ b/online_job_postings.xlsx
@@ -12,7 +12,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -50,27 +50,13 @@
   <si>
     <t>Source: Adzuna</t>
   </si>
-  <si>
-    <t>Figure 4: Total online job vacancies declined more than 50% from the start of March to the start of May 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total weekly job adverts on Adzuna, UK: index 2019 average = 100 </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,11 +84,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1680,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,1862 +1677,1852 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>8</v>
+      <c r="A2" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B2">
+        <f>ROUND('[1]Index = 2019 average'!B6, 1)</f>
+        <v>86.5</v>
+      </c>
+      <c r="C2">
+        <f>ROUND('[1]Index = 2019 average'!C6, 1)</f>
+        <v>71.3</v>
+      </c>
+      <c r="D2">
+        <f>ROUND('[1]Index = 2019 average'!D6, 1)</f>
+        <v>95.7</v>
+      </c>
+      <c r="E2">
+        <f>ROUND('[1]Index = 2019 average'!E6, 1)</f>
+        <v>94.3</v>
+      </c>
+      <c r="F2">
+        <f>ROUND('[1]Index = 2019 average'!F6, 1)</f>
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
+        <v>43476</v>
+      </c>
+      <c r="B3">
+        <f>ROUND('[1]Index = 2019 average'!B7, 1)</f>
+        <v>95.3</v>
+      </c>
+      <c r="C3">
+        <f>ROUND('[1]Index = 2019 average'!C7, 1)</f>
+        <v>75.5</v>
+      </c>
+      <c r="D3">
+        <f>ROUND('[1]Index = 2019 average'!D7, 1)</f>
+        <v>96.1</v>
+      </c>
+      <c r="E3">
+        <f>ROUND('[1]Index = 2019 average'!E7, 1)</f>
+        <v>103.3</v>
+      </c>
+      <c r="F3">
+        <f>ROUND('[1]Index = 2019 average'!F7, 1)</f>
+        <v>85.4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
+      <c r="A4" s="2">
+        <v>43483</v>
+      </c>
+      <c r="B4">
+        <f>ROUND('[1]Index = 2019 average'!B8, 1)</f>
+        <v>97.8</v>
+      </c>
+      <c r="C4">
+        <f>ROUND('[1]Index = 2019 average'!C8, 1)</f>
+        <v>77.099999999999994</v>
+      </c>
+      <c r="D4">
+        <f>ROUND('[1]Index = 2019 average'!D8, 1)</f>
+        <v>100.8</v>
+      </c>
+      <c r="E4">
+        <f>ROUND('[1]Index = 2019 average'!E8, 1)</f>
+        <v>101.7</v>
+      </c>
+      <c r="F4">
+        <f>ROUND('[1]Index = 2019 average'!F8, 1)</f>
+        <v>89.9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
-        <v>43469</v>
+        <v>43489</v>
       </c>
       <c r="B5">
-        <f>ROUND('[1]Index = 2019 average'!B6, 1)</f>
-        <v>86.5</v>
+        <f>ROUND('[1]Index = 2019 average'!B9, 1)</f>
+        <v>98.8</v>
       </c>
       <c r="C5">
-        <f>ROUND('[1]Index = 2019 average'!C6, 1)</f>
-        <v>71.3</v>
+        <f>ROUND('[1]Index = 2019 average'!C9, 1)</f>
+        <v>74.2</v>
       </c>
       <c r="D5">
-        <f>ROUND('[1]Index = 2019 average'!D6, 1)</f>
-        <v>95.7</v>
+        <f>ROUND('[1]Index = 2019 average'!D9, 1)</f>
+        <v>105.1</v>
       </c>
       <c r="E5">
-        <f>ROUND('[1]Index = 2019 average'!E6, 1)</f>
-        <v>94.3</v>
+        <f>ROUND('[1]Index = 2019 average'!E9, 1)</f>
+        <v>97.7</v>
       </c>
       <c r="F5">
-        <f>ROUND('[1]Index = 2019 average'!F6, 1)</f>
-        <v>78.8</v>
+        <f>ROUND('[1]Index = 2019 average'!F9, 1)</f>
+        <v>91.9</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
-        <v>43476</v>
+        <v>43497</v>
       </c>
       <c r="B6">
-        <f>ROUND('[1]Index = 2019 average'!B7, 1)</f>
-        <v>95.3</v>
+        <f>ROUND('[1]Index = 2019 average'!B10, 1)</f>
+        <v>108.5</v>
       </c>
       <c r="C6">
-        <f>ROUND('[1]Index = 2019 average'!C7, 1)</f>
-        <v>75.5</v>
+        <f>ROUND('[1]Index = 2019 average'!C10, 1)</f>
+        <v>86.3</v>
       </c>
       <c r="D6">
-        <f>ROUND('[1]Index = 2019 average'!D7, 1)</f>
-        <v>96.1</v>
+        <f>ROUND('[1]Index = 2019 average'!D10, 1)</f>
+        <v>113.9</v>
       </c>
       <c r="E6">
-        <f>ROUND('[1]Index = 2019 average'!E7, 1)</f>
-        <v>103.3</v>
+        <f>ROUND('[1]Index = 2019 average'!E10, 1)</f>
+        <v>113.7</v>
       </c>
       <c r="F6">
-        <f>ROUND('[1]Index = 2019 average'!F7, 1)</f>
-        <v>85.4</v>
+        <f>ROUND('[1]Index = 2019 average'!F10, 1)</f>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
-        <v>43483</v>
+        <v>43503</v>
       </c>
       <c r="B7">
-        <f>ROUND('[1]Index = 2019 average'!B8, 1)</f>
-        <v>97.8</v>
+        <f>ROUND('[1]Index = 2019 average'!B11, 1)</f>
+        <v>106.6</v>
       </c>
       <c r="C7">
-        <f>ROUND('[1]Index = 2019 average'!C8, 1)</f>
-        <v>77.099999999999994</v>
+        <f>ROUND('[1]Index = 2019 average'!C11, 1)</f>
+        <v>83.1</v>
       </c>
       <c r="D7">
-        <f>ROUND('[1]Index = 2019 average'!D8, 1)</f>
-        <v>100.8</v>
+        <f>ROUND('[1]Index = 2019 average'!D11, 1)</f>
+        <v>110.3</v>
       </c>
       <c r="E7">
-        <f>ROUND('[1]Index = 2019 average'!E8, 1)</f>
-        <v>101.7</v>
+        <f>ROUND('[1]Index = 2019 average'!E11, 1)</f>
+        <v>106</v>
       </c>
       <c r="F7">
-        <f>ROUND('[1]Index = 2019 average'!F8, 1)</f>
-        <v>89.9</v>
+        <f>ROUND('[1]Index = 2019 average'!F11, 1)</f>
+        <v>93.2</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
-        <v>43489</v>
+        <v>43511</v>
       </c>
       <c r="B8">
-        <f>ROUND('[1]Index = 2019 average'!B9, 1)</f>
-        <v>98.8</v>
+        <f>ROUND('[1]Index = 2019 average'!B12, 1)</f>
+        <v>112.8</v>
       </c>
       <c r="C8">
-        <f>ROUND('[1]Index = 2019 average'!C9, 1)</f>
-        <v>74.2</v>
+        <f>ROUND('[1]Index = 2019 average'!C12, 1)</f>
+        <v>93.6</v>
       </c>
       <c r="D8">
-        <f>ROUND('[1]Index = 2019 average'!D9, 1)</f>
-        <v>105.1</v>
+        <f>ROUND('[1]Index = 2019 average'!D12, 1)</f>
+        <v>116.2</v>
       </c>
       <c r="E8">
-        <f>ROUND('[1]Index = 2019 average'!E9, 1)</f>
-        <v>97.7</v>
+        <f>ROUND('[1]Index = 2019 average'!E12, 1)</f>
+        <v>110.7</v>
       </c>
       <c r="F8">
-        <f>ROUND('[1]Index = 2019 average'!F9, 1)</f>
-        <v>91.9</v>
+        <f>ROUND('[1]Index = 2019 average'!F12, 1)</f>
+        <v>87.1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
-        <v>43497</v>
+        <v>43518</v>
       </c>
       <c r="B9">
-        <f>ROUND('[1]Index = 2019 average'!B10, 1)</f>
-        <v>108.5</v>
+        <f>ROUND('[1]Index = 2019 average'!B13, 1)</f>
+        <v>109.5</v>
       </c>
       <c r="C9">
-        <f>ROUND('[1]Index = 2019 average'!C10, 1)</f>
-        <v>86.3</v>
+        <f>ROUND('[1]Index = 2019 average'!C13, 1)</f>
+        <v>94.1</v>
       </c>
       <c r="D9">
-        <f>ROUND('[1]Index = 2019 average'!D10, 1)</f>
-        <v>113.9</v>
+        <f>ROUND('[1]Index = 2019 average'!D13, 1)</f>
+        <v>114</v>
       </c>
       <c r="E9">
-        <f>ROUND('[1]Index = 2019 average'!E10, 1)</f>
-        <v>113.7</v>
+        <f>ROUND('[1]Index = 2019 average'!E13, 1)</f>
+        <v>106.1</v>
       </c>
       <c r="F9">
-        <f>ROUND('[1]Index = 2019 average'!F10, 1)</f>
-        <v>96</v>
+        <f>ROUND('[1]Index = 2019 average'!F13, 1)</f>
+        <v>91.9</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
-        <v>43503</v>
+        <v>43524</v>
       </c>
       <c r="B10">
-        <f>ROUND('[1]Index = 2019 average'!B11, 1)</f>
-        <v>106.6</v>
+        <f>ROUND('[1]Index = 2019 average'!B14, 1)</f>
+        <v>106.2</v>
       </c>
       <c r="C10">
-        <f>ROUND('[1]Index = 2019 average'!C11, 1)</f>
-        <v>83.1</v>
+        <f>ROUND('[1]Index = 2019 average'!C14, 1)</f>
+        <v>94.7</v>
       </c>
       <c r="D10">
-        <f>ROUND('[1]Index = 2019 average'!D11, 1)</f>
-        <v>110.3</v>
+        <f>ROUND('[1]Index = 2019 average'!D14, 1)</f>
+        <v>111.8</v>
       </c>
       <c r="E10">
-        <f>ROUND('[1]Index = 2019 average'!E11, 1)</f>
-        <v>106</v>
+        <f>ROUND('[1]Index = 2019 average'!E14, 1)</f>
+        <v>101.6</v>
       </c>
       <c r="F10">
-        <f>ROUND('[1]Index = 2019 average'!F11, 1)</f>
-        <v>93.2</v>
+        <f>ROUND('[1]Index = 2019 average'!F14, 1)</f>
+        <v>96.6</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
-        <v>43511</v>
+        <v>43531</v>
       </c>
       <c r="B11">
-        <f>ROUND('[1]Index = 2019 average'!B12, 1)</f>
-        <v>112.8</v>
+        <f>ROUND('[1]Index = 2019 average'!B15, 1)</f>
+        <v>104</v>
       </c>
       <c r="C11">
-        <f>ROUND('[1]Index = 2019 average'!C12, 1)</f>
-        <v>93.6</v>
+        <f>ROUND('[1]Index = 2019 average'!C15, 1)</f>
+        <v>90.5</v>
       </c>
       <c r="D11">
-        <f>ROUND('[1]Index = 2019 average'!D12, 1)</f>
-        <v>116.2</v>
+        <f>ROUND('[1]Index = 2019 average'!D15, 1)</f>
+        <v>106.1</v>
       </c>
       <c r="E11">
-        <f>ROUND('[1]Index = 2019 average'!E12, 1)</f>
-        <v>110.7</v>
+        <f>ROUND('[1]Index = 2019 average'!E15, 1)</f>
+        <v>103.6</v>
       </c>
       <c r="F11">
-        <f>ROUND('[1]Index = 2019 average'!F12, 1)</f>
-        <v>87.1</v>
+        <f>ROUND('[1]Index = 2019 average'!F15, 1)</f>
+        <v>92.1</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
-        <v>43518</v>
+        <v>43538</v>
       </c>
       <c r="B12">
-        <f>ROUND('[1]Index = 2019 average'!B13, 1)</f>
-        <v>109.5</v>
+        <f>ROUND('[1]Index = 2019 average'!B16, 1)</f>
+        <v>102.9</v>
       </c>
       <c r="C12">
-        <f>ROUND('[1]Index = 2019 average'!C13, 1)</f>
-        <v>94.1</v>
+        <f>ROUND('[1]Index = 2019 average'!C16, 1)</f>
+        <v>95.2</v>
       </c>
       <c r="D12">
-        <f>ROUND('[1]Index = 2019 average'!D13, 1)</f>
-        <v>114</v>
+        <f>ROUND('[1]Index = 2019 average'!D16, 1)</f>
+        <v>102.1</v>
       </c>
       <c r="E12">
-        <f>ROUND('[1]Index = 2019 average'!E13, 1)</f>
-        <v>106.1</v>
+        <f>ROUND('[1]Index = 2019 average'!E16, 1)</f>
+        <v>91.4</v>
       </c>
       <c r="F12">
-        <f>ROUND('[1]Index = 2019 average'!F13, 1)</f>
-        <v>91.9</v>
+        <f>ROUND('[1]Index = 2019 average'!F16, 1)</f>
+        <v>84.6</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
-        <v>43524</v>
+        <v>43545</v>
       </c>
       <c r="B13">
-        <f>ROUND('[1]Index = 2019 average'!B14, 1)</f>
-        <v>106.2</v>
+        <f>ROUND('[1]Index = 2019 average'!B17, 1)</f>
+        <v>112.7</v>
       </c>
       <c r="C13">
-        <f>ROUND('[1]Index = 2019 average'!C14, 1)</f>
-        <v>94.7</v>
+        <f>ROUND('[1]Index = 2019 average'!C17, 1)</f>
+        <v>96.6</v>
       </c>
       <c r="D13">
-        <f>ROUND('[1]Index = 2019 average'!D14, 1)</f>
-        <v>111.8</v>
+        <f>ROUND('[1]Index = 2019 average'!D17, 1)</f>
+        <v>109</v>
       </c>
       <c r="E13">
-        <f>ROUND('[1]Index = 2019 average'!E14, 1)</f>
-        <v>101.6</v>
+        <f>ROUND('[1]Index = 2019 average'!E17, 1)</f>
+        <v>105.7</v>
       </c>
       <c r="F13">
-        <f>ROUND('[1]Index = 2019 average'!F14, 1)</f>
-        <v>96.6</v>
+        <f>ROUND('[1]Index = 2019 average'!F17, 1)</f>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
-        <v>43531</v>
+        <v>43552</v>
       </c>
       <c r="B14">
-        <f>ROUND('[1]Index = 2019 average'!B15, 1)</f>
-        <v>104</v>
+        <f>ROUND('[1]Index = 2019 average'!B18, 1)</f>
+        <v>106.7</v>
       </c>
       <c r="C14">
-        <f>ROUND('[1]Index = 2019 average'!C15, 1)</f>
-        <v>90.5</v>
+        <f>ROUND('[1]Index = 2019 average'!C18, 1)</f>
+        <v>100</v>
       </c>
       <c r="D14">
-        <f>ROUND('[1]Index = 2019 average'!D15, 1)</f>
-        <v>106.1</v>
+        <f>ROUND('[1]Index = 2019 average'!D18, 1)</f>
+        <v>116</v>
       </c>
       <c r="E14">
-        <f>ROUND('[1]Index = 2019 average'!E15, 1)</f>
-        <v>103.6</v>
+        <f>ROUND('[1]Index = 2019 average'!E18, 1)</f>
+        <v>101.6</v>
       </c>
       <c r="F14">
-        <f>ROUND('[1]Index = 2019 average'!F15, 1)</f>
-        <v>92.1</v>
+        <f>ROUND('[1]Index = 2019 average'!F18, 1)</f>
+        <v>94.6</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
-        <v>43538</v>
+        <v>43559</v>
       </c>
       <c r="B15">
-        <f>ROUND('[1]Index = 2019 average'!B16, 1)</f>
-        <v>102.9</v>
+        <f>ROUND('[1]Index = 2019 average'!B19, 1)</f>
+        <v>102.8</v>
       </c>
       <c r="C15">
-        <f>ROUND('[1]Index = 2019 average'!C16, 1)</f>
-        <v>95.2</v>
+        <f>ROUND('[1]Index = 2019 average'!C19, 1)</f>
+        <v>97.3</v>
       </c>
       <c r="D15">
-        <f>ROUND('[1]Index = 2019 average'!D16, 1)</f>
-        <v>102.1</v>
+        <f>ROUND('[1]Index = 2019 average'!D19, 1)</f>
+        <v>113.5</v>
       </c>
       <c r="E15">
-        <f>ROUND('[1]Index = 2019 average'!E16, 1)</f>
-        <v>91.4</v>
+        <f>ROUND('[1]Index = 2019 average'!E19, 1)</f>
+        <v>95.8</v>
       </c>
       <c r="F15">
-        <f>ROUND('[1]Index = 2019 average'!F16, 1)</f>
-        <v>84.6</v>
+        <f>ROUND('[1]Index = 2019 average'!F19, 1)</f>
+        <v>91.7</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
-        <v>43545</v>
+        <v>43566</v>
       </c>
       <c r="B16">
-        <f>ROUND('[1]Index = 2019 average'!B17, 1)</f>
-        <v>112.7</v>
+        <f>ROUND('[1]Index = 2019 average'!B20, 1)</f>
+        <v>103.6</v>
       </c>
       <c r="C16">
-        <f>ROUND('[1]Index = 2019 average'!C17, 1)</f>
+        <f>ROUND('[1]Index = 2019 average'!C20, 1)</f>
         <v>96.6</v>
       </c>
       <c r="D16">
-        <f>ROUND('[1]Index = 2019 average'!D17, 1)</f>
-        <v>109</v>
+        <f>ROUND('[1]Index = 2019 average'!D20, 1)</f>
+        <v>116.7</v>
       </c>
       <c r="E16">
-        <f>ROUND('[1]Index = 2019 average'!E17, 1)</f>
-        <v>105.7</v>
+        <f>ROUND('[1]Index = 2019 average'!E20, 1)</f>
+        <v>96.2</v>
       </c>
       <c r="F16">
-        <f>ROUND('[1]Index = 2019 average'!F17, 1)</f>
-        <v>91</v>
+        <f>ROUND('[1]Index = 2019 average'!F20, 1)</f>
+        <v>98.5</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
-        <v>43552</v>
+        <v>43573</v>
       </c>
       <c r="B17">
-        <f>ROUND('[1]Index = 2019 average'!B18, 1)</f>
-        <v>106.7</v>
+        <f>ROUND('[1]Index = 2019 average'!B21, 1)</f>
+        <v>101.1</v>
       </c>
       <c r="C17">
-        <f>ROUND('[1]Index = 2019 average'!C18, 1)</f>
-        <v>100</v>
+        <f>ROUND('[1]Index = 2019 average'!C21, 1)</f>
+        <v>91.1</v>
       </c>
       <c r="D17">
-        <f>ROUND('[1]Index = 2019 average'!D18, 1)</f>
-        <v>116</v>
+        <f>ROUND('[1]Index = 2019 average'!D21, 1)</f>
+        <v>112.6</v>
       </c>
       <c r="E17">
-        <f>ROUND('[1]Index = 2019 average'!E18, 1)</f>
-        <v>101.6</v>
+        <f>ROUND('[1]Index = 2019 average'!E21, 1)</f>
+        <v>95.1</v>
       </c>
       <c r="F17">
-        <f>ROUND('[1]Index = 2019 average'!F18, 1)</f>
-        <v>94.6</v>
+        <f>ROUND('[1]Index = 2019 average'!F21, 1)</f>
+        <v>94.3</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
-        <v>43559</v>
+        <v>43580</v>
       </c>
       <c r="B18">
-        <f>ROUND('[1]Index = 2019 average'!B19, 1)</f>
-        <v>102.8</v>
+        <f>ROUND('[1]Index = 2019 average'!B22, 1)</f>
+        <v>96.8</v>
       </c>
       <c r="C18">
-        <f>ROUND('[1]Index = 2019 average'!C19, 1)</f>
-        <v>97.3</v>
+        <f>ROUND('[1]Index = 2019 average'!C22, 1)</f>
+        <v>89.3</v>
       </c>
       <c r="D18">
-        <f>ROUND('[1]Index = 2019 average'!D19, 1)</f>
-        <v>113.5</v>
+        <f>ROUND('[1]Index = 2019 average'!D22, 1)</f>
+        <v>105.3</v>
       </c>
       <c r="E18">
-        <f>ROUND('[1]Index = 2019 average'!E19, 1)</f>
-        <v>95.8</v>
+        <f>ROUND('[1]Index = 2019 average'!E22, 1)</f>
+        <v>88.2</v>
       </c>
       <c r="F18">
-        <f>ROUND('[1]Index = 2019 average'!F19, 1)</f>
-        <v>91.7</v>
+        <f>ROUND('[1]Index = 2019 average'!F22, 1)</f>
+        <v>91.6</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
-        <v>43566</v>
+        <v>43587</v>
       </c>
       <c r="B19">
-        <f>ROUND('[1]Index = 2019 average'!B20, 1)</f>
-        <v>103.6</v>
+        <f>ROUND('[1]Index = 2019 average'!B23, 1)</f>
+        <v>96.2</v>
       </c>
       <c r="C19">
-        <f>ROUND('[1]Index = 2019 average'!C20, 1)</f>
-        <v>96.6</v>
+        <f>ROUND('[1]Index = 2019 average'!C23, 1)</f>
+        <v>84.9</v>
       </c>
       <c r="D19">
-        <f>ROUND('[1]Index = 2019 average'!D20, 1)</f>
-        <v>116.7</v>
+        <f>ROUND('[1]Index = 2019 average'!D23, 1)</f>
+        <v>102.2</v>
       </c>
       <c r="E19">
-        <f>ROUND('[1]Index = 2019 average'!E20, 1)</f>
-        <v>96.2</v>
+        <f>ROUND('[1]Index = 2019 average'!E23, 1)</f>
+        <v>89.4</v>
       </c>
       <c r="F19">
-        <f>ROUND('[1]Index = 2019 average'!F20, 1)</f>
-        <v>98.5</v>
+        <f>ROUND('[1]Index = 2019 average'!F23, 1)</f>
+        <v>91.7</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <v>43573</v>
+        <v>43594</v>
       </c>
       <c r="B20">
-        <f>ROUND('[1]Index = 2019 average'!B21, 1)</f>
-        <v>101.1</v>
+        <f>ROUND('[1]Index = 2019 average'!B24, 1)</f>
+        <v>95.3</v>
       </c>
       <c r="C20">
-        <f>ROUND('[1]Index = 2019 average'!C21, 1)</f>
-        <v>91.1</v>
+        <f>ROUND('[1]Index = 2019 average'!C24, 1)</f>
+        <v>79.400000000000006</v>
       </c>
       <c r="D20">
-        <f>ROUND('[1]Index = 2019 average'!D21, 1)</f>
-        <v>112.6</v>
+        <f>ROUND('[1]Index = 2019 average'!D24, 1)</f>
+        <v>101.2</v>
       </c>
       <c r="E20">
-        <f>ROUND('[1]Index = 2019 average'!E21, 1)</f>
-        <v>95.1</v>
+        <f>ROUND('[1]Index = 2019 average'!E24, 1)</f>
+        <v>88.8</v>
       </c>
       <c r="F20">
-        <f>ROUND('[1]Index = 2019 average'!F21, 1)</f>
-        <v>94.3</v>
+        <f>ROUND('[1]Index = 2019 average'!F24, 1)</f>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
-        <v>43580</v>
+        <v>43601</v>
       </c>
       <c r="B21">
-        <f>ROUND('[1]Index = 2019 average'!B22, 1)</f>
-        <v>96.8</v>
+        <f>ROUND('[1]Index = 2019 average'!B25, 1)</f>
+        <v>104.2</v>
       </c>
       <c r="C21">
-        <f>ROUND('[1]Index = 2019 average'!C22, 1)</f>
-        <v>89.3</v>
+        <f>ROUND('[1]Index = 2019 average'!C25, 1)</f>
+        <v>92.4</v>
       </c>
       <c r="D21">
-        <f>ROUND('[1]Index = 2019 average'!D22, 1)</f>
-        <v>105.3</v>
+        <f>ROUND('[1]Index = 2019 average'!D25, 1)</f>
+        <v>109.4</v>
       </c>
       <c r="E21">
-        <f>ROUND('[1]Index = 2019 average'!E22, 1)</f>
-        <v>88.2</v>
+        <f>ROUND('[1]Index = 2019 average'!E25, 1)</f>
+        <v>100.4</v>
       </c>
       <c r="F21">
-        <f>ROUND('[1]Index = 2019 average'!F22, 1)</f>
-        <v>91.6</v>
+        <f>ROUND('[1]Index = 2019 average'!F25, 1)</f>
+        <v>99.2</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
-        <v>43587</v>
+        <v>43608</v>
       </c>
       <c r="B22">
-        <f>ROUND('[1]Index = 2019 average'!B23, 1)</f>
-        <v>96.2</v>
+        <f>ROUND('[1]Index = 2019 average'!B26, 1)</f>
+        <v>104.7</v>
       </c>
       <c r="C22">
-        <f>ROUND('[1]Index = 2019 average'!C23, 1)</f>
-        <v>84.9</v>
+        <f>ROUND('[1]Index = 2019 average'!C26, 1)</f>
+        <v>91.4</v>
       </c>
       <c r="D22">
-        <f>ROUND('[1]Index = 2019 average'!D23, 1)</f>
-        <v>102.2</v>
+        <f>ROUND('[1]Index = 2019 average'!D26, 1)</f>
+        <v>116.8</v>
       </c>
       <c r="E22">
-        <f>ROUND('[1]Index = 2019 average'!E23, 1)</f>
-        <v>89.4</v>
+        <f>ROUND('[1]Index = 2019 average'!E26, 1)</f>
+        <v>106.5</v>
       </c>
       <c r="F22">
-        <f>ROUND('[1]Index = 2019 average'!F23, 1)</f>
-        <v>91.7</v>
+        <f>ROUND('[1]Index = 2019 average'!F26, 1)</f>
+        <v>101.1</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
-        <v>43594</v>
+        <v>43615</v>
       </c>
       <c r="B23">
-        <f>ROUND('[1]Index = 2019 average'!B24, 1)</f>
-        <v>95.3</v>
+        <f>ROUND('[1]Index = 2019 average'!B27, 1)</f>
+        <v>98</v>
       </c>
       <c r="C23">
-        <f>ROUND('[1]Index = 2019 average'!C24, 1)</f>
-        <v>79.400000000000006</v>
+        <f>ROUND('[1]Index = 2019 average'!C27, 1)</f>
+        <v>88.2</v>
       </c>
       <c r="D23">
-        <f>ROUND('[1]Index = 2019 average'!D24, 1)</f>
-        <v>101.2</v>
+        <f>ROUND('[1]Index = 2019 average'!D27, 1)</f>
+        <v>109.8</v>
       </c>
       <c r="E23">
-        <f>ROUND('[1]Index = 2019 average'!E24, 1)</f>
-        <v>88.8</v>
+        <f>ROUND('[1]Index = 2019 average'!E27, 1)</f>
+        <v>94.6</v>
       </c>
       <c r="F23">
-        <f>ROUND('[1]Index = 2019 average'!F24, 1)</f>
-        <v>88</v>
+        <f>ROUND('[1]Index = 2019 average'!F27, 1)</f>
+        <v>95.9</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
-        <v>43601</v>
+        <v>43622</v>
       </c>
       <c r="B24">
-        <f>ROUND('[1]Index = 2019 average'!B25, 1)</f>
-        <v>104.2</v>
+        <f>ROUND('[1]Index = 2019 average'!B28, 1)</f>
+        <v>102.1</v>
       </c>
       <c r="C24">
-        <f>ROUND('[1]Index = 2019 average'!C25, 1)</f>
-        <v>92.4</v>
+        <f>ROUND('[1]Index = 2019 average'!C28, 1)</f>
+        <v>93.9</v>
       </c>
       <c r="D24">
-        <f>ROUND('[1]Index = 2019 average'!D25, 1)</f>
-        <v>109.4</v>
+        <f>ROUND('[1]Index = 2019 average'!D28, 1)</f>
+        <v>101.8</v>
       </c>
       <c r="E24">
-        <f>ROUND('[1]Index = 2019 average'!E25, 1)</f>
-        <v>100.4</v>
+        <f>ROUND('[1]Index = 2019 average'!E28, 1)</f>
+        <v>103</v>
       </c>
       <c r="F24">
-        <f>ROUND('[1]Index = 2019 average'!F25, 1)</f>
-        <v>99.2</v>
+        <f>ROUND('[1]Index = 2019 average'!F28, 1)</f>
+        <v>99.1</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
-        <v>43608</v>
+        <v>43629</v>
       </c>
       <c r="B25">
-        <f>ROUND('[1]Index = 2019 average'!B26, 1)</f>
-        <v>104.7</v>
+        <f>ROUND('[1]Index = 2019 average'!B29, 1)</f>
+        <v>103.1</v>
       </c>
       <c r="C25">
-        <f>ROUND('[1]Index = 2019 average'!C26, 1)</f>
-        <v>91.4</v>
+        <f>ROUND('[1]Index = 2019 average'!C29, 1)</f>
+        <v>94.9</v>
       </c>
       <c r="D25">
-        <f>ROUND('[1]Index = 2019 average'!D26, 1)</f>
-        <v>116.8</v>
+        <f>ROUND('[1]Index = 2019 average'!D29, 1)</f>
+        <v>97.6</v>
       </c>
       <c r="E25">
-        <f>ROUND('[1]Index = 2019 average'!E26, 1)</f>
-        <v>106.5</v>
+        <f>ROUND('[1]Index = 2019 average'!E29, 1)</f>
+        <v>98</v>
       </c>
       <c r="F25">
-        <f>ROUND('[1]Index = 2019 average'!F26, 1)</f>
-        <v>101.1</v>
+        <f>ROUND('[1]Index = 2019 average'!F29, 1)</f>
+        <v>99.5</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
-        <v>43615</v>
+        <v>43636</v>
       </c>
       <c r="B26">
-        <f>ROUND('[1]Index = 2019 average'!B27, 1)</f>
-        <v>98</v>
+        <f>ROUND('[1]Index = 2019 average'!B30, 1)</f>
+        <v>106.4</v>
       </c>
       <c r="C26">
-        <f>ROUND('[1]Index = 2019 average'!C27, 1)</f>
-        <v>88.2</v>
+        <f>ROUND('[1]Index = 2019 average'!C30, 1)</f>
+        <v>94.1</v>
       </c>
       <c r="D26">
-        <f>ROUND('[1]Index = 2019 average'!D27, 1)</f>
-        <v>109.8</v>
+        <f>ROUND('[1]Index = 2019 average'!D30, 1)</f>
+        <v>101.8</v>
       </c>
       <c r="E26">
-        <f>ROUND('[1]Index = 2019 average'!E27, 1)</f>
-        <v>94.6</v>
+        <f>ROUND('[1]Index = 2019 average'!E30, 1)</f>
+        <v>108.2</v>
       </c>
       <c r="F26">
-        <f>ROUND('[1]Index = 2019 average'!F27, 1)</f>
-        <v>95.9</v>
+        <f>ROUND('[1]Index = 2019 average'!F30, 1)</f>
+        <v>102.3</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
-        <v>43622</v>
+        <v>43643</v>
       </c>
       <c r="B27">
-        <f>ROUND('[1]Index = 2019 average'!B28, 1)</f>
-        <v>102.1</v>
+        <f>ROUND('[1]Index = 2019 average'!B31, 1)</f>
+        <v>97.4</v>
       </c>
       <c r="C27">
-        <f>ROUND('[1]Index = 2019 average'!C28, 1)</f>
-        <v>93.9</v>
+        <f>ROUND('[1]Index = 2019 average'!C31, 1)</f>
+        <v>92.7</v>
       </c>
       <c r="D27">
-        <f>ROUND('[1]Index = 2019 average'!D28, 1)</f>
-        <v>101.8</v>
+        <f>ROUND('[1]Index = 2019 average'!D31, 1)</f>
+        <v>92.5</v>
       </c>
       <c r="E27">
-        <f>ROUND('[1]Index = 2019 average'!E28, 1)</f>
-        <v>103</v>
+        <f>ROUND('[1]Index = 2019 average'!E31, 1)</f>
+        <v>100.7</v>
       </c>
       <c r="F27">
-        <f>ROUND('[1]Index = 2019 average'!F28, 1)</f>
-        <v>99.1</v>
+        <f>ROUND('[1]Index = 2019 average'!F31, 1)</f>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
-        <v>43629</v>
+        <v>43650</v>
       </c>
       <c r="B28">
-        <f>ROUND('[1]Index = 2019 average'!B29, 1)</f>
-        <v>103.1</v>
+        <f>ROUND('[1]Index = 2019 average'!B32, 1)</f>
+        <v>105</v>
       </c>
       <c r="C28">
-        <f>ROUND('[1]Index = 2019 average'!C29, 1)</f>
-        <v>94.9</v>
+        <f>ROUND('[1]Index = 2019 average'!C32, 1)</f>
+        <v>96.4</v>
       </c>
       <c r="D28">
-        <f>ROUND('[1]Index = 2019 average'!D29, 1)</f>
-        <v>97.6</v>
+        <f>ROUND('[1]Index = 2019 average'!D32, 1)</f>
+        <v>99.4</v>
       </c>
       <c r="E28">
-        <f>ROUND('[1]Index = 2019 average'!E29, 1)</f>
-        <v>98</v>
+        <f>ROUND('[1]Index = 2019 average'!E32, 1)</f>
+        <v>100.5</v>
       </c>
       <c r="F28">
-        <f>ROUND('[1]Index = 2019 average'!F29, 1)</f>
-        <v>99.5</v>
+        <f>ROUND('[1]Index = 2019 average'!F32, 1)</f>
+        <v>91.6</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2">
-        <v>43636</v>
+        <v>43657</v>
       </c>
       <c r="B29">
-        <f>ROUND('[1]Index = 2019 average'!B30, 1)</f>
-        <v>106.4</v>
-      </c>
-      <c r="C29">
-        <f>ROUND('[1]Index = 2019 average'!C30, 1)</f>
-        <v>94.1</v>
-      </c>
-      <c r="D29">
-        <f>ROUND('[1]Index = 2019 average'!D30, 1)</f>
-        <v>101.8</v>
-      </c>
-      <c r="E29">
-        <f>ROUND('[1]Index = 2019 average'!E30, 1)</f>
-        <v>108.2</v>
-      </c>
-      <c r="F29">
-        <f>ROUND('[1]Index = 2019 average'!F30, 1)</f>
-        <v>102.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2">
-        <v>43643</v>
-      </c>
-      <c r="B30">
-        <f>ROUND('[1]Index = 2019 average'!B31, 1)</f>
-        <v>97.4</v>
-      </c>
-      <c r="C30">
-        <f>ROUND('[1]Index = 2019 average'!C31, 1)</f>
-        <v>92.7</v>
-      </c>
-      <c r="D30">
-        <f>ROUND('[1]Index = 2019 average'!D31, 1)</f>
-        <v>92.5</v>
-      </c>
-      <c r="E30">
-        <f>ROUND('[1]Index = 2019 average'!E31, 1)</f>
-        <v>100.7</v>
-      </c>
-      <c r="F30">
-        <f>ROUND('[1]Index = 2019 average'!F31, 1)</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2">
-        <v>43650</v>
-      </c>
-      <c r="B31">
-        <f>ROUND('[1]Index = 2019 average'!B32, 1)</f>
-        <v>105</v>
-      </c>
-      <c r="C31">
-        <f>ROUND('[1]Index = 2019 average'!C32, 1)</f>
-        <v>96.4</v>
-      </c>
-      <c r="D31">
-        <f>ROUND('[1]Index = 2019 average'!D32, 1)</f>
-        <v>99.4</v>
-      </c>
-      <c r="E31">
-        <f>ROUND('[1]Index = 2019 average'!E32, 1)</f>
-        <v>100.5</v>
-      </c>
-      <c r="F31">
-        <f>ROUND('[1]Index = 2019 average'!F32, 1)</f>
-        <v>91.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2">
-        <v>43657</v>
-      </c>
-      <c r="B32">
         <f>ROUND('[1]Index = 2019 average'!B33, 1)</f>
         <v>114</v>
       </c>
-      <c r="C32">
+      <c r="C29">
         <f>ROUND('[1]Index = 2019 average'!C33, 1)</f>
         <v>102.8</v>
       </c>
-      <c r="D32">
+      <c r="D29">
         <f>ROUND('[1]Index = 2019 average'!D33, 1)</f>
         <v>105</v>
       </c>
-      <c r="E32">
+      <c r="E29">
         <f>ROUND('[1]Index = 2019 average'!E33, 1)</f>
         <v>107.9</v>
       </c>
-      <c r="F32">
+      <c r="F29">
         <f>ROUND('[1]Index = 2019 average'!F33, 1)</f>
         <v>98.2</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>43664</v>
+      </c>
+      <c r="B30">
+        <f>ROUND('[1]Index = 2019 average'!B34, 1)</f>
+        <v>112.9</v>
+      </c>
+      <c r="C30">
+        <f>ROUND('[1]Index = 2019 average'!C34, 1)</f>
+        <v>106.6</v>
+      </c>
+      <c r="D30">
+        <f>ROUND('[1]Index = 2019 average'!D34, 1)</f>
+        <v>99.9</v>
+      </c>
+      <c r="E30">
+        <f>ROUND('[1]Index = 2019 average'!E34, 1)</f>
+        <v>106</v>
+      </c>
+      <c r="F30">
+        <f>ROUND('[1]Index = 2019 average'!F34, 1)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>43671</v>
+      </c>
+      <c r="B31">
+        <f>ROUND('[1]Index = 2019 average'!B35, 1)</f>
+        <v>96.5</v>
+      </c>
+      <c r="C31">
+        <f>ROUND('[1]Index = 2019 average'!C35, 1)</f>
+        <v>95.5</v>
+      </c>
+      <c r="D31">
+        <f>ROUND('[1]Index = 2019 average'!D35, 1)</f>
+        <v>88.4</v>
+      </c>
+      <c r="E31">
+        <f>ROUND('[1]Index = 2019 average'!E35, 1)</f>
+        <v>87.8</v>
+      </c>
+      <c r="F31">
+        <f>ROUND('[1]Index = 2019 average'!F35, 1)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>43678</v>
+      </c>
+      <c r="B32">
+        <f>ROUND('[1]Index = 2019 average'!B36, 1)</f>
+        <v>94.4</v>
+      </c>
+      <c r="C32">
+        <f>ROUND('[1]Index = 2019 average'!C36, 1)</f>
+        <v>97.6</v>
+      </c>
+      <c r="D32">
+        <f>ROUND('[1]Index = 2019 average'!D36, 1)</f>
+        <v>83.4</v>
+      </c>
+      <c r="E32">
+        <f>ROUND('[1]Index = 2019 average'!E36, 1)</f>
+        <v>78.2</v>
+      </c>
+      <c r="F32">
+        <f>ROUND('[1]Index = 2019 average'!F36, 1)</f>
+        <v>88.1</v>
+      </c>
+    </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>43664</v>
+        <v>43685</v>
       </c>
       <c r="B33">
-        <f>ROUND('[1]Index = 2019 average'!B34, 1)</f>
-        <v>112.9</v>
+        <f>ROUND('[1]Index = 2019 average'!B37, 1)</f>
+        <v>96.8</v>
       </c>
       <c r="C33">
-        <f>ROUND('[1]Index = 2019 average'!C34, 1)</f>
-        <v>106.6</v>
+        <f>ROUND('[1]Index = 2019 average'!C37, 1)</f>
+        <v>93.3</v>
       </c>
       <c r="D33">
-        <f>ROUND('[1]Index = 2019 average'!D34, 1)</f>
-        <v>99.9</v>
+        <f>ROUND('[1]Index = 2019 average'!D37, 1)</f>
+        <v>79.599999999999994</v>
       </c>
       <c r="E33">
-        <f>ROUND('[1]Index = 2019 average'!E34, 1)</f>
-        <v>106</v>
+        <f>ROUND('[1]Index = 2019 average'!E37, 1)</f>
+        <v>87.5</v>
       </c>
       <c r="F33">
-        <f>ROUND('[1]Index = 2019 average'!F34, 1)</f>
-        <v>97</v>
+        <f>ROUND('[1]Index = 2019 average'!F37, 1)</f>
+        <v>99.1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>43671</v>
+        <v>43692</v>
       </c>
       <c r="B34">
-        <f>ROUND('[1]Index = 2019 average'!B35, 1)</f>
-        <v>96.5</v>
+        <f>ROUND('[1]Index = 2019 average'!B38, 1)</f>
+        <v>96.9</v>
       </c>
       <c r="C34">
-        <f>ROUND('[1]Index = 2019 average'!C35, 1)</f>
-        <v>95.5</v>
+        <f>ROUND('[1]Index = 2019 average'!C38, 1)</f>
+        <v>93.8</v>
       </c>
       <c r="D34">
-        <f>ROUND('[1]Index = 2019 average'!D35, 1)</f>
-        <v>88.4</v>
+        <f>ROUND('[1]Index = 2019 average'!D38, 1)</f>
+        <v>75.5</v>
       </c>
       <c r="E34">
-        <f>ROUND('[1]Index = 2019 average'!E35, 1)</f>
-        <v>87.8</v>
+        <f>ROUND('[1]Index = 2019 average'!E38, 1)</f>
+        <v>89.7</v>
       </c>
       <c r="F34">
-        <f>ROUND('[1]Index = 2019 average'!F35, 1)</f>
-        <v>91</v>
+        <f>ROUND('[1]Index = 2019 average'!F38, 1)</f>
+        <v>97.1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>43678</v>
+        <v>43699</v>
       </c>
       <c r="B35">
-        <f>ROUND('[1]Index = 2019 average'!B36, 1)</f>
-        <v>94.4</v>
+        <f>ROUND('[1]Index = 2019 average'!B39, 1)</f>
+        <v>96.8</v>
       </c>
       <c r="C35">
-        <f>ROUND('[1]Index = 2019 average'!C36, 1)</f>
-        <v>97.6</v>
+        <f>ROUND('[1]Index = 2019 average'!C39, 1)</f>
+        <v>95.3</v>
       </c>
       <c r="D35">
-        <f>ROUND('[1]Index = 2019 average'!D36, 1)</f>
-        <v>83.4</v>
+        <f>ROUND('[1]Index = 2019 average'!D39, 1)</f>
+        <v>72.2</v>
       </c>
       <c r="E35">
-        <f>ROUND('[1]Index = 2019 average'!E36, 1)</f>
-        <v>78.2</v>
+        <f>ROUND('[1]Index = 2019 average'!E39, 1)</f>
+        <v>89.3</v>
       </c>
       <c r="F35">
-        <f>ROUND('[1]Index = 2019 average'!F36, 1)</f>
-        <v>88.1</v>
+        <f>ROUND('[1]Index = 2019 average'!F39, 1)</f>
+        <v>97.9</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>43685</v>
+        <v>43706</v>
       </c>
       <c r="B36">
-        <f>ROUND('[1]Index = 2019 average'!B37, 1)</f>
-        <v>96.8</v>
+        <f>ROUND('[1]Index = 2019 average'!B40, 1)</f>
+        <v>92.4</v>
       </c>
       <c r="C36">
-        <f>ROUND('[1]Index = 2019 average'!C37, 1)</f>
-        <v>93.3</v>
+        <f>ROUND('[1]Index = 2019 average'!C40, 1)</f>
+        <v>95.1</v>
       </c>
       <c r="D36">
-        <f>ROUND('[1]Index = 2019 average'!D37, 1)</f>
-        <v>79.599999999999994</v>
+        <f>ROUND('[1]Index = 2019 average'!D40, 1)</f>
+        <v>67.900000000000006</v>
       </c>
       <c r="E36">
-        <f>ROUND('[1]Index = 2019 average'!E37, 1)</f>
-        <v>87.5</v>
+        <f>ROUND('[1]Index = 2019 average'!E40, 1)</f>
+        <v>84.5</v>
       </c>
       <c r="F36">
-        <f>ROUND('[1]Index = 2019 average'!F37, 1)</f>
-        <v>99.1</v>
+        <f>ROUND('[1]Index = 2019 average'!F40, 1)</f>
+        <v>95.9</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>43692</v>
+        <v>43713</v>
       </c>
       <c r="B37">
-        <f>ROUND('[1]Index = 2019 average'!B38, 1)</f>
-        <v>96.9</v>
+        <f>ROUND('[1]Index = 2019 average'!B41, 1)</f>
+        <v>94.4</v>
       </c>
       <c r="C37">
-        <f>ROUND('[1]Index = 2019 average'!C38, 1)</f>
-        <v>93.8</v>
+        <f>ROUND('[1]Index = 2019 average'!C41, 1)</f>
+        <v>108.3</v>
       </c>
       <c r="D37">
-        <f>ROUND('[1]Index = 2019 average'!D38, 1)</f>
-        <v>75.5</v>
+        <f>ROUND('[1]Index = 2019 average'!D41, 1)</f>
+        <v>76.400000000000006</v>
       </c>
       <c r="E37">
-        <f>ROUND('[1]Index = 2019 average'!E38, 1)</f>
-        <v>89.7</v>
+        <f>ROUND('[1]Index = 2019 average'!E41, 1)</f>
+        <v>94.1</v>
       </c>
       <c r="F37">
-        <f>ROUND('[1]Index = 2019 average'!F38, 1)</f>
-        <v>97.1</v>
+        <f>ROUND('[1]Index = 2019 average'!F41, 1)</f>
+        <v>110.3</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>43699</v>
+        <v>43720</v>
       </c>
       <c r="B38">
-        <f>ROUND('[1]Index = 2019 average'!B39, 1)</f>
-        <v>96.8</v>
+        <f>ROUND('[1]Index = 2019 average'!B42, 1)</f>
+        <v>96.3</v>
       </c>
       <c r="C38">
-        <f>ROUND('[1]Index = 2019 average'!C39, 1)</f>
-        <v>95.3</v>
+        <f>ROUND('[1]Index = 2019 average'!C42, 1)</f>
+        <v>112.2</v>
       </c>
       <c r="D38">
-        <f>ROUND('[1]Index = 2019 average'!D39, 1)</f>
-        <v>72.2</v>
+        <f>ROUND('[1]Index = 2019 average'!D42, 1)</f>
+        <v>83</v>
       </c>
       <c r="E38">
-        <f>ROUND('[1]Index = 2019 average'!E39, 1)</f>
-        <v>89.3</v>
+        <f>ROUND('[1]Index = 2019 average'!E42, 1)</f>
+        <v>93.3</v>
       </c>
       <c r="F38">
-        <f>ROUND('[1]Index = 2019 average'!F39, 1)</f>
-        <v>97.9</v>
+        <f>ROUND('[1]Index = 2019 average'!F42, 1)</f>
+        <v>114.3</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>43706</v>
+        <v>43727</v>
       </c>
       <c r="B39">
-        <f>ROUND('[1]Index = 2019 average'!B40, 1)</f>
-        <v>92.4</v>
+        <f>ROUND('[1]Index = 2019 average'!B43, 1)</f>
+        <v>96</v>
       </c>
       <c r="C39">
-        <f>ROUND('[1]Index = 2019 average'!C40, 1)</f>
-        <v>95.1</v>
+        <f>ROUND('[1]Index = 2019 average'!C43, 1)</f>
+        <v>113.5</v>
       </c>
       <c r="D39">
-        <f>ROUND('[1]Index = 2019 average'!D40, 1)</f>
-        <v>67.900000000000006</v>
+        <f>ROUND('[1]Index = 2019 average'!D43, 1)</f>
+        <v>86.1</v>
       </c>
       <c r="E39">
-        <f>ROUND('[1]Index = 2019 average'!E40, 1)</f>
-        <v>84.5</v>
+        <f>ROUND('[1]Index = 2019 average'!E43, 1)</f>
+        <v>104.4</v>
       </c>
       <c r="F39">
-        <f>ROUND('[1]Index = 2019 average'!F40, 1)</f>
-        <v>95.9</v>
+        <f>ROUND('[1]Index = 2019 average'!F43, 1)</f>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>43713</v>
+        <v>43734</v>
       </c>
       <c r="B40">
-        <f>ROUND('[1]Index = 2019 average'!B41, 1)</f>
-        <v>94.4</v>
+        <f>ROUND('[1]Index = 2019 average'!B44, 1)</f>
+        <v>99.8</v>
       </c>
       <c r="C40">
-        <f>ROUND('[1]Index = 2019 average'!C41, 1)</f>
-        <v>108.3</v>
+        <f>ROUND('[1]Index = 2019 average'!C44, 1)</f>
+        <v>122.1</v>
       </c>
       <c r="D40">
-        <f>ROUND('[1]Index = 2019 average'!D41, 1)</f>
-        <v>76.400000000000006</v>
+        <f>ROUND('[1]Index = 2019 average'!D44, 1)</f>
+        <v>91.8</v>
       </c>
       <c r="E40">
-        <f>ROUND('[1]Index = 2019 average'!E41, 1)</f>
-        <v>94.1</v>
+        <f>ROUND('[1]Index = 2019 average'!E44, 1)</f>
+        <v>112.5</v>
       </c>
       <c r="F40">
-        <f>ROUND('[1]Index = 2019 average'!F41, 1)</f>
-        <v>110.3</v>
+        <f>ROUND('[1]Index = 2019 average'!F44, 1)</f>
+        <v>120.1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>43720</v>
+        <v>43741</v>
       </c>
       <c r="B41">
-        <f>ROUND('[1]Index = 2019 average'!B42, 1)</f>
-        <v>96.3</v>
+        <f>ROUND('[1]Index = 2019 average'!B45, 1)</f>
+        <v>100.5</v>
       </c>
       <c r="C41">
-        <f>ROUND('[1]Index = 2019 average'!C42, 1)</f>
-        <v>112.2</v>
+        <f>ROUND('[1]Index = 2019 average'!C45, 1)</f>
+        <v>118.1</v>
       </c>
       <c r="D41">
-        <f>ROUND('[1]Index = 2019 average'!D42, 1)</f>
-        <v>83</v>
+        <f>ROUND('[1]Index = 2019 average'!D45, 1)</f>
+        <v>96.7</v>
       </c>
       <c r="E41">
-        <f>ROUND('[1]Index = 2019 average'!E42, 1)</f>
-        <v>93.3</v>
+        <f>ROUND('[1]Index = 2019 average'!E45, 1)</f>
+        <v>125.5</v>
       </c>
       <c r="F41">
-        <f>ROUND('[1]Index = 2019 average'!F42, 1)</f>
-        <v>114.3</v>
+        <f>ROUND('[1]Index = 2019 average'!F45, 1)</f>
+        <v>121.1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>43727</v>
+        <v>43748</v>
       </c>
       <c r="B42">
-        <f>ROUND('[1]Index = 2019 average'!B43, 1)</f>
-        <v>96</v>
+        <f>ROUND('[1]Index = 2019 average'!B46, 1)</f>
+        <v>101.1</v>
       </c>
       <c r="C42">
-        <f>ROUND('[1]Index = 2019 average'!C43, 1)</f>
-        <v>113.5</v>
+        <f>ROUND('[1]Index = 2019 average'!C46, 1)</f>
+        <v>117.3</v>
       </c>
       <c r="D42">
-        <f>ROUND('[1]Index = 2019 average'!D43, 1)</f>
-        <v>86.1</v>
+        <f>ROUND('[1]Index = 2019 average'!D46, 1)</f>
+        <v>100</v>
       </c>
       <c r="E42">
-        <f>ROUND('[1]Index = 2019 average'!E43, 1)</f>
-        <v>104.4</v>
+        <f>ROUND('[1]Index = 2019 average'!E46, 1)</f>
+        <v>129.30000000000001</v>
       </c>
       <c r="F42">
-        <f>ROUND('[1]Index = 2019 average'!F43, 1)</f>
-        <v>117</v>
+        <f>ROUND('[1]Index = 2019 average'!F46, 1)</f>
+        <v>114.3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>43734</v>
+        <v>43755</v>
       </c>
       <c r="B43">
-        <f>ROUND('[1]Index = 2019 average'!B44, 1)</f>
-        <v>99.8</v>
+        <f>ROUND('[1]Index = 2019 average'!B47, 1)</f>
+        <v>98.4</v>
       </c>
       <c r="C43">
-        <f>ROUND('[1]Index = 2019 average'!C44, 1)</f>
-        <v>122.1</v>
+        <f>ROUND('[1]Index = 2019 average'!C47, 1)</f>
+        <v>123.9</v>
       </c>
       <c r="D43">
-        <f>ROUND('[1]Index = 2019 average'!D44, 1)</f>
-        <v>91.8</v>
+        <f>ROUND('[1]Index = 2019 average'!D47, 1)</f>
+        <v>100.8</v>
       </c>
       <c r="E43">
-        <f>ROUND('[1]Index = 2019 average'!E44, 1)</f>
-        <v>112.5</v>
+        <f>ROUND('[1]Index = 2019 average'!E47, 1)</f>
+        <v>119.2</v>
       </c>
       <c r="F43">
-        <f>ROUND('[1]Index = 2019 average'!F44, 1)</f>
-        <v>120.1</v>
+        <f>ROUND('[1]Index = 2019 average'!F47, 1)</f>
+        <v>124.1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>43741</v>
+        <v>43762</v>
       </c>
       <c r="B44">
-        <f>ROUND('[1]Index = 2019 average'!B45, 1)</f>
-        <v>100.5</v>
+        <f>ROUND('[1]Index = 2019 average'!B48, 1)</f>
+        <v>103.7</v>
       </c>
       <c r="C44">
-        <f>ROUND('[1]Index = 2019 average'!C45, 1)</f>
-        <v>118.1</v>
+        <f>ROUND('[1]Index = 2019 average'!C48, 1)</f>
+        <v>135.30000000000001</v>
       </c>
       <c r="D44">
-        <f>ROUND('[1]Index = 2019 average'!D45, 1)</f>
-        <v>96.7</v>
+        <f>ROUND('[1]Index = 2019 average'!D48, 1)</f>
+        <v>102.5</v>
       </c>
       <c r="E44">
-        <f>ROUND('[1]Index = 2019 average'!E45, 1)</f>
-        <v>125.5</v>
+        <f>ROUND('[1]Index = 2019 average'!E48, 1)</f>
+        <v>117.4</v>
       </c>
       <c r="F44">
-        <f>ROUND('[1]Index = 2019 average'!F45, 1)</f>
-        <v>121.1</v>
+        <f>ROUND('[1]Index = 2019 average'!F48, 1)</f>
+        <v>125.6</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>43748</v>
+        <v>43769</v>
       </c>
       <c r="B45">
-        <f>ROUND('[1]Index = 2019 average'!B46, 1)</f>
-        <v>101.1</v>
+        <f>ROUND('[1]Index = 2019 average'!B49, 1)</f>
+        <v>103</v>
       </c>
       <c r="C45">
-        <f>ROUND('[1]Index = 2019 average'!C46, 1)</f>
-        <v>117.3</v>
+        <f>ROUND('[1]Index = 2019 average'!C49, 1)</f>
+        <v>136</v>
       </c>
       <c r="D45">
-        <f>ROUND('[1]Index = 2019 average'!D46, 1)</f>
-        <v>100</v>
+        <f>ROUND('[1]Index = 2019 average'!D49, 1)</f>
+        <v>101.8</v>
       </c>
       <c r="E45">
-        <f>ROUND('[1]Index = 2019 average'!E46, 1)</f>
-        <v>129.30000000000001</v>
+        <f>ROUND('[1]Index = 2019 average'!E49, 1)</f>
+        <v>118.7</v>
       </c>
       <c r="F45">
-        <f>ROUND('[1]Index = 2019 average'!F46, 1)</f>
-        <v>114.3</v>
+        <f>ROUND('[1]Index = 2019 average'!F49, 1)</f>
+        <v>123.3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>43755</v>
+        <v>43776</v>
       </c>
       <c r="B46">
-        <f>ROUND('[1]Index = 2019 average'!B47, 1)</f>
-        <v>98.4</v>
+        <f>ROUND('[1]Index = 2019 average'!B50, 1)</f>
+        <v>101</v>
       </c>
       <c r="C46">
-        <f>ROUND('[1]Index = 2019 average'!C47, 1)</f>
-        <v>123.9</v>
+        <f>ROUND('[1]Index = 2019 average'!C50, 1)</f>
+        <v>131.4</v>
       </c>
       <c r="D46">
-        <f>ROUND('[1]Index = 2019 average'!D47, 1)</f>
-        <v>100.8</v>
+        <f>ROUND('[1]Index = 2019 average'!D50, 1)</f>
+        <v>101.8</v>
       </c>
       <c r="E46">
-        <f>ROUND('[1]Index = 2019 average'!E47, 1)</f>
-        <v>119.2</v>
+        <f>ROUND('[1]Index = 2019 average'!E50, 1)</f>
+        <v>113.5</v>
       </c>
       <c r="F46">
-        <f>ROUND('[1]Index = 2019 average'!F47, 1)</f>
-        <v>124.1</v>
+        <f>ROUND('[1]Index = 2019 average'!F50, 1)</f>
+        <v>120.4</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>43762</v>
+        <v>43783</v>
       </c>
       <c r="B47">
-        <f>ROUND('[1]Index = 2019 average'!B48, 1)</f>
-        <v>103.7</v>
+        <f>ROUND('[1]Index = 2019 average'!B51, 1)</f>
+        <v>99</v>
       </c>
       <c r="C47">
-        <f>ROUND('[1]Index = 2019 average'!C48, 1)</f>
-        <v>135.30000000000001</v>
+        <f>ROUND('[1]Index = 2019 average'!C51, 1)</f>
+        <v>126.8</v>
       </c>
       <c r="D47">
-        <f>ROUND('[1]Index = 2019 average'!D48, 1)</f>
-        <v>102.5</v>
+        <f>ROUND('[1]Index = 2019 average'!D51, 1)</f>
+        <v>101.9</v>
       </c>
       <c r="E47">
-        <f>ROUND('[1]Index = 2019 average'!E48, 1)</f>
-        <v>117.4</v>
+        <f>ROUND('[1]Index = 2019 average'!E51, 1)</f>
+        <v>108.3</v>
       </c>
       <c r="F47">
-        <f>ROUND('[1]Index = 2019 average'!F48, 1)</f>
-        <v>125.6</v>
+        <f>ROUND('[1]Index = 2019 average'!F51, 1)</f>
+        <v>117.5</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>43769</v>
+        <v>43790</v>
       </c>
       <c r="B48">
-        <f>ROUND('[1]Index = 2019 average'!B49, 1)</f>
+        <f>ROUND('[1]Index = 2019 average'!B52, 1)</f>
+        <v>97</v>
+      </c>
+      <c r="C48">
+        <f>ROUND('[1]Index = 2019 average'!C52, 1)</f>
+        <v>122.2</v>
+      </c>
+      <c r="D48">
+        <f>ROUND('[1]Index = 2019 average'!D52, 1)</f>
+        <v>101.9</v>
+      </c>
+      <c r="E48">
+        <f>ROUND('[1]Index = 2019 average'!E52, 1)</f>
         <v>103</v>
       </c>
-      <c r="C48">
-        <f>ROUND('[1]Index = 2019 average'!C49, 1)</f>
-        <v>136</v>
-      </c>
-      <c r="D48">
-        <f>ROUND('[1]Index = 2019 average'!D49, 1)</f>
-        <v>101.8</v>
-      </c>
-      <c r="E48">
-        <f>ROUND('[1]Index = 2019 average'!E49, 1)</f>
-        <v>118.7</v>
-      </c>
       <c r="F48">
-        <f>ROUND('[1]Index = 2019 average'!F49, 1)</f>
-        <v>123.3</v>
+        <f>ROUND('[1]Index = 2019 average'!F52, 1)</f>
+        <v>114.6</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>43776</v>
+        <v>43797</v>
       </c>
       <c r="B49">
-        <f>ROUND('[1]Index = 2019 average'!B50, 1)</f>
-        <v>101</v>
+        <f>ROUND('[1]Index = 2019 average'!B53, 1)</f>
+        <v>94.9</v>
       </c>
       <c r="C49">
-        <f>ROUND('[1]Index = 2019 average'!C50, 1)</f>
-        <v>131.4</v>
+        <f>ROUND('[1]Index = 2019 average'!C53, 1)</f>
+        <v>117.6</v>
       </c>
       <c r="D49">
-        <f>ROUND('[1]Index = 2019 average'!D50, 1)</f>
-        <v>101.8</v>
+        <f>ROUND('[1]Index = 2019 average'!D53, 1)</f>
+        <v>102</v>
       </c>
       <c r="E49">
-        <f>ROUND('[1]Index = 2019 average'!E50, 1)</f>
-        <v>113.5</v>
+        <f>ROUND('[1]Index = 2019 average'!E53, 1)</f>
+        <v>97.8</v>
       </c>
       <c r="F49">
-        <f>ROUND('[1]Index = 2019 average'!F50, 1)</f>
-        <v>120.4</v>
+        <f>ROUND('[1]Index = 2019 average'!F53, 1)</f>
+        <v>111.7</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>43783</v>
+        <v>43804</v>
       </c>
       <c r="B50">
-        <f>ROUND('[1]Index = 2019 average'!B51, 1)</f>
-        <v>99</v>
+        <f>ROUND('[1]Index = 2019 average'!B54, 1)</f>
+        <v>97</v>
       </c>
       <c r="C50">
-        <f>ROUND('[1]Index = 2019 average'!C51, 1)</f>
-        <v>126.8</v>
+        <f>ROUND('[1]Index = 2019 average'!C54, 1)</f>
+        <v>117.8</v>
       </c>
       <c r="D50">
-        <f>ROUND('[1]Index = 2019 average'!D51, 1)</f>
-        <v>101.9</v>
+        <f>ROUND('[1]Index = 2019 average'!D54, 1)</f>
+        <v>110.7</v>
       </c>
       <c r="E50">
-        <f>ROUND('[1]Index = 2019 average'!E51, 1)</f>
-        <v>108.3</v>
+        <f>ROUND('[1]Index = 2019 average'!E54, 1)</f>
+        <v>93.7</v>
       </c>
       <c r="F50">
-        <f>ROUND('[1]Index = 2019 average'!F51, 1)</f>
-        <v>117.5</v>
+        <f>ROUND('[1]Index = 2019 average'!F54, 1)</f>
+        <v>107.2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>43790</v>
+        <v>43811</v>
       </c>
       <c r="B51">
-        <f>ROUND('[1]Index = 2019 average'!B52, 1)</f>
-        <v>97</v>
+        <f>ROUND('[1]Index = 2019 average'!B55, 1)</f>
+        <v>90.6</v>
       </c>
       <c r="C51">
-        <f>ROUND('[1]Index = 2019 average'!C52, 1)</f>
-        <v>122.2</v>
+        <f>ROUND('[1]Index = 2019 average'!C55, 1)</f>
+        <v>109.4</v>
       </c>
       <c r="D51">
-        <f>ROUND('[1]Index = 2019 average'!D52, 1)</f>
-        <v>101.9</v>
+        <f>ROUND('[1]Index = 2019 average'!D55, 1)</f>
+        <v>104.2</v>
       </c>
       <c r="E51">
-        <f>ROUND('[1]Index = 2019 average'!E52, 1)</f>
-        <v>103</v>
+        <f>ROUND('[1]Index = 2019 average'!E55, 1)</f>
+        <v>86.1</v>
       </c>
       <c r="F51">
-        <f>ROUND('[1]Index = 2019 average'!F52, 1)</f>
-        <v>114.6</v>
+        <f>ROUND('[1]Index = 2019 average'!F55, 1)</f>
+        <v>99.5</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>43797</v>
+        <v>43818</v>
       </c>
       <c r="B52">
-        <f>ROUND('[1]Index = 2019 average'!B53, 1)</f>
-        <v>94.9</v>
+        <f>ROUND('[1]Index = 2019 average'!B56, 1)</f>
+        <v>84.2</v>
       </c>
       <c r="C52">
-        <f>ROUND('[1]Index = 2019 average'!C53, 1)</f>
-        <v>117.6</v>
+        <f>ROUND('[1]Index = 2019 average'!C56, 1)</f>
+        <v>101.1</v>
       </c>
       <c r="D52">
-        <f>ROUND('[1]Index = 2019 average'!D53, 1)</f>
-        <v>102</v>
+        <f>ROUND('[1]Index = 2019 average'!D56, 1)</f>
+        <v>97.6</v>
       </c>
       <c r="E52">
-        <f>ROUND('[1]Index = 2019 average'!E53, 1)</f>
-        <v>97.8</v>
+        <f>ROUND('[1]Index = 2019 average'!E56, 1)</f>
+        <v>78.5</v>
       </c>
       <c r="F52">
-        <f>ROUND('[1]Index = 2019 average'!F53, 1)</f>
-        <v>111.7</v>
+        <f>ROUND('[1]Index = 2019 average'!F56, 1)</f>
+        <v>91.9</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>43804</v>
+        <v>43826</v>
       </c>
       <c r="B53">
-        <f>ROUND('[1]Index = 2019 average'!B54, 1)</f>
-        <v>97</v>
+        <f>ROUND('[1]Index = 2019 average'!B57, 1)</f>
+        <v>77.7</v>
       </c>
       <c r="C53">
-        <f>ROUND('[1]Index = 2019 average'!C54, 1)</f>
-        <v>117.8</v>
+        <f>ROUND('[1]Index = 2019 average'!C57, 1)</f>
+        <v>92.7</v>
       </c>
       <c r="D53">
-        <f>ROUND('[1]Index = 2019 average'!D54, 1)</f>
-        <v>110.7</v>
+        <f>ROUND('[1]Index = 2019 average'!D57, 1)</f>
+        <v>91.1</v>
       </c>
       <c r="E53">
-        <f>ROUND('[1]Index = 2019 average'!E54, 1)</f>
-        <v>93.7</v>
+        <f>ROUND('[1]Index = 2019 average'!E57, 1)</f>
+        <v>71</v>
       </c>
       <c r="F53">
-        <f>ROUND('[1]Index = 2019 average'!F54, 1)</f>
-        <v>107.2</v>
+        <f>ROUND('[1]Index = 2019 average'!F57, 1)</f>
+        <v>84.3</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>43811</v>
+        <v>43833</v>
       </c>
       <c r="B54">
-        <f>ROUND('[1]Index = 2019 average'!B55, 1)</f>
-        <v>90.6</v>
+        <f>ROUND('[1]Index = 2019 average'!B58, 1)</f>
+        <v>81.900000000000006</v>
       </c>
       <c r="C54">
-        <f>ROUND('[1]Index = 2019 average'!C55, 1)</f>
-        <v>109.4</v>
+        <f>ROUND('[1]Index = 2019 average'!C58, 1)</f>
+        <v>98.1</v>
       </c>
       <c r="D54">
-        <f>ROUND('[1]Index = 2019 average'!D55, 1)</f>
-        <v>104.2</v>
+        <f>ROUND('[1]Index = 2019 average'!D58, 1)</f>
+        <v>84.3</v>
       </c>
       <c r="E54">
-        <f>ROUND('[1]Index = 2019 average'!E55, 1)</f>
-        <v>86.1</v>
+        <f>ROUND('[1]Index = 2019 average'!E58, 1)</f>
+        <v>77</v>
       </c>
       <c r="F54">
-        <f>ROUND('[1]Index = 2019 average'!F55, 1)</f>
-        <v>99.5</v>
+        <f>ROUND('[1]Index = 2019 average'!F58, 1)</f>
+        <v>87.8</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>43818</v>
+        <v>43840</v>
       </c>
       <c r="B55">
-        <f>ROUND('[1]Index = 2019 average'!B56, 1)</f>
-        <v>84.2</v>
+        <f>ROUND('[1]Index = 2019 average'!B59, 1)</f>
+        <v>85.2</v>
       </c>
       <c r="C55">
-        <f>ROUND('[1]Index = 2019 average'!C56, 1)</f>
-        <v>101.1</v>
+        <f>ROUND('[1]Index = 2019 average'!C59, 1)</f>
+        <v>101.8</v>
       </c>
       <c r="D55">
-        <f>ROUND('[1]Index = 2019 average'!D56, 1)</f>
-        <v>97.6</v>
+        <f>ROUND('[1]Index = 2019 average'!D59, 1)</f>
+        <v>88.3</v>
       </c>
       <c r="E55">
-        <f>ROUND('[1]Index = 2019 average'!E56, 1)</f>
-        <v>78.5</v>
+        <f>ROUND('[1]Index = 2019 average'!E59, 1)</f>
+        <v>79.2</v>
       </c>
       <c r="F55">
-        <f>ROUND('[1]Index = 2019 average'!F56, 1)</f>
-        <v>91.9</v>
+        <f>ROUND('[1]Index = 2019 average'!F59, 1)</f>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>43826</v>
+        <v>43846</v>
       </c>
       <c r="B56">
-        <f>ROUND('[1]Index = 2019 average'!B57, 1)</f>
-        <v>77.7</v>
+        <f>ROUND('[1]Index = 2019 average'!B60, 1)</f>
+        <v>88.4</v>
       </c>
       <c r="C56">
-        <f>ROUND('[1]Index = 2019 average'!C57, 1)</f>
-        <v>92.7</v>
+        <f>ROUND('[1]Index = 2019 average'!C60, 1)</f>
+        <v>105.5</v>
       </c>
       <c r="D56">
-        <f>ROUND('[1]Index = 2019 average'!D57, 1)</f>
-        <v>91.1</v>
+        <f>ROUND('[1]Index = 2019 average'!D60, 1)</f>
+        <v>92.2</v>
       </c>
       <c r="E56">
-        <f>ROUND('[1]Index = 2019 average'!E57, 1)</f>
-        <v>71</v>
+        <f>ROUND('[1]Index = 2019 average'!E60, 1)</f>
+        <v>81.3</v>
       </c>
       <c r="F56">
-        <f>ROUND('[1]Index = 2019 average'!F57, 1)</f>
-        <v>84.3</v>
+        <f>ROUND('[1]Index = 2019 average'!F60, 1)</f>
+        <v>94.3</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>43833</v>
+        <v>43853</v>
       </c>
       <c r="B57">
-        <f>ROUND('[1]Index = 2019 average'!B58, 1)</f>
-        <v>81.900000000000006</v>
+        <f>ROUND('[1]Index = 2019 average'!B61, 1)</f>
+        <v>94.8</v>
       </c>
       <c r="C57">
-        <f>ROUND('[1]Index = 2019 average'!C58, 1)</f>
-        <v>98.1</v>
+        <f>ROUND('[1]Index = 2019 average'!C61, 1)</f>
+        <v>115</v>
       </c>
       <c r="D57">
-        <f>ROUND('[1]Index = 2019 average'!D58, 1)</f>
-        <v>84.3</v>
+        <f>ROUND('[1]Index = 2019 average'!D61, 1)</f>
+        <v>106.4</v>
       </c>
       <c r="E57">
-        <f>ROUND('[1]Index = 2019 average'!E58, 1)</f>
-        <v>77</v>
+        <f>ROUND('[1]Index = 2019 average'!E61, 1)</f>
+        <v>83.1</v>
       </c>
       <c r="F57">
-        <f>ROUND('[1]Index = 2019 average'!F58, 1)</f>
-        <v>87.8</v>
+        <f>ROUND('[1]Index = 2019 average'!F61, 1)</f>
+        <v>99.5</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>43840</v>
+        <v>43860</v>
       </c>
       <c r="B58">
-        <f>ROUND('[1]Index = 2019 average'!B59, 1)</f>
-        <v>85.2</v>
+        <f>ROUND('[1]Index = 2019 average'!B62, 1)</f>
+        <v>96.1</v>
       </c>
       <c r="C58">
-        <f>ROUND('[1]Index = 2019 average'!C59, 1)</f>
-        <v>101.8</v>
+        <f>ROUND('[1]Index = 2019 average'!C62, 1)</f>
+        <v>118.9</v>
       </c>
       <c r="D58">
-        <f>ROUND('[1]Index = 2019 average'!D59, 1)</f>
-        <v>88.3</v>
+        <f>ROUND('[1]Index = 2019 average'!D62, 1)</f>
+        <v>109.3</v>
       </c>
       <c r="E58">
-        <f>ROUND('[1]Index = 2019 average'!E59, 1)</f>
-        <v>79.2</v>
+        <f>ROUND('[1]Index = 2019 average'!E62, 1)</f>
+        <v>83</v>
       </c>
       <c r="F58">
-        <f>ROUND('[1]Index = 2019 average'!F59, 1)</f>
-        <v>91</v>
+        <f>ROUND('[1]Index = 2019 average'!F62, 1)</f>
+        <v>105.7</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>43846</v>
+        <v>43868</v>
       </c>
       <c r="B59">
-        <f>ROUND('[1]Index = 2019 average'!B60, 1)</f>
-        <v>88.4</v>
+        <f>ROUND('[1]Index = 2019 average'!B63, 1)</f>
+        <v>97.4</v>
       </c>
       <c r="C59">
-        <f>ROUND('[1]Index = 2019 average'!C60, 1)</f>
-        <v>105.5</v>
+        <f>ROUND('[1]Index = 2019 average'!C63, 1)</f>
+        <v>119.6</v>
       </c>
       <c r="D59">
-        <f>ROUND('[1]Index = 2019 average'!D60, 1)</f>
-        <v>92.2</v>
+        <f>ROUND('[1]Index = 2019 average'!D63, 1)</f>
+        <v>112.9</v>
       </c>
       <c r="E59">
-        <f>ROUND('[1]Index = 2019 average'!E60, 1)</f>
-        <v>81.3</v>
+        <f>ROUND('[1]Index = 2019 average'!E63, 1)</f>
+        <v>84</v>
       </c>
       <c r="F59">
-        <f>ROUND('[1]Index = 2019 average'!F60, 1)</f>
-        <v>94.3</v>
+        <f>ROUND('[1]Index = 2019 average'!F63, 1)</f>
+        <v>104.5</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>43853</v>
+        <v>43874</v>
       </c>
       <c r="B60">
-        <f>ROUND('[1]Index = 2019 average'!B61, 1)</f>
-        <v>94.8</v>
+        <f>ROUND('[1]Index = 2019 average'!B64, 1)</f>
+        <v>99.6</v>
       </c>
       <c r="C60">
-        <f>ROUND('[1]Index = 2019 average'!C61, 1)</f>
-        <v>115</v>
+        <f>ROUND('[1]Index = 2019 average'!C64, 1)</f>
+        <v>118.6</v>
       </c>
       <c r="D60">
-        <f>ROUND('[1]Index = 2019 average'!D61, 1)</f>
-        <v>106.4</v>
+        <f>ROUND('[1]Index = 2019 average'!D64, 1)</f>
+        <v>111.3</v>
       </c>
       <c r="E60">
-        <f>ROUND('[1]Index = 2019 average'!E61, 1)</f>
-        <v>83.1</v>
+        <f>ROUND('[1]Index = 2019 average'!E64, 1)</f>
+        <v>86.5</v>
       </c>
       <c r="F60">
-        <f>ROUND('[1]Index = 2019 average'!F61, 1)</f>
-        <v>99.5</v>
+        <f>ROUND('[1]Index = 2019 average'!F64, 1)</f>
+        <v>101.7</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>43860</v>
+        <v>43882</v>
       </c>
       <c r="B61">
-        <f>ROUND('[1]Index = 2019 average'!B62, 1)</f>
-        <v>96.1</v>
+        <f>ROUND('[1]Index = 2019 average'!B65, 1)</f>
+        <v>90.5</v>
       </c>
       <c r="C61">
-        <f>ROUND('[1]Index = 2019 average'!C62, 1)</f>
-        <v>118.9</v>
+        <f>ROUND('[1]Index = 2019 average'!C65, 1)</f>
+        <v>110.7</v>
       </c>
       <c r="D61">
-        <f>ROUND('[1]Index = 2019 average'!D62, 1)</f>
-        <v>109.3</v>
+        <f>ROUND('[1]Index = 2019 average'!D65, 1)</f>
+        <v>98.8</v>
       </c>
       <c r="E61">
-        <f>ROUND('[1]Index = 2019 average'!E62, 1)</f>
-        <v>83</v>
+        <f>ROUND('[1]Index = 2019 average'!E65, 1)</f>
+        <v>82.7</v>
       </c>
       <c r="F61">
-        <f>ROUND('[1]Index = 2019 average'!F62, 1)</f>
-        <v>105.7</v>
+        <f>ROUND('[1]Index = 2019 average'!F65, 1)</f>
+        <v>98.8</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>43868</v>
+        <v>43888</v>
       </c>
       <c r="B62">
-        <f>ROUND('[1]Index = 2019 average'!B63, 1)</f>
-        <v>97.4</v>
+        <f>ROUND('[1]Index = 2019 average'!B66, 1)</f>
+        <v>94.1</v>
       </c>
       <c r="C62">
-        <f>ROUND('[1]Index = 2019 average'!C63, 1)</f>
-        <v>119.6</v>
+        <f>ROUND('[1]Index = 2019 average'!C66, 1)</f>
+        <v>112.7</v>
       </c>
       <c r="D62">
-        <f>ROUND('[1]Index = 2019 average'!D63, 1)</f>
-        <v>112.9</v>
+        <f>ROUND('[1]Index = 2019 average'!D66, 1)</f>
+        <v>101.3</v>
       </c>
       <c r="E62">
-        <f>ROUND('[1]Index = 2019 average'!E63, 1)</f>
-        <v>84</v>
+        <f>ROUND('[1]Index = 2019 average'!E66, 1)</f>
+        <v>87.8</v>
       </c>
       <c r="F62">
-        <f>ROUND('[1]Index = 2019 average'!F63, 1)</f>
-        <v>104.5</v>
+        <f>ROUND('[1]Index = 2019 average'!F66, 1)</f>
+        <v>99.9</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>43874</v>
+        <v>43896</v>
       </c>
       <c r="B63">
-        <f>ROUND('[1]Index = 2019 average'!B64, 1)</f>
-        <v>99.6</v>
+        <f>ROUND('[1]Index = 2019 average'!B67, 1)</f>
+        <v>100.7</v>
       </c>
       <c r="C63">
-        <f>ROUND('[1]Index = 2019 average'!C64, 1)</f>
-        <v>118.6</v>
+        <f>ROUND('[1]Index = 2019 average'!C67, 1)</f>
+        <v>119.6</v>
       </c>
       <c r="D63">
-        <f>ROUND('[1]Index = 2019 average'!D64, 1)</f>
-        <v>111.3</v>
+        <f>ROUND('[1]Index = 2019 average'!D67, 1)</f>
+        <v>123.8</v>
       </c>
       <c r="E63">
-        <f>ROUND('[1]Index = 2019 average'!E64, 1)</f>
-        <v>86.5</v>
+        <f>ROUND('[1]Index = 2019 average'!E67, 1)</f>
+        <v>91.3</v>
       </c>
       <c r="F63">
-        <f>ROUND('[1]Index = 2019 average'!F64, 1)</f>
-        <v>101.7</v>
+        <f>ROUND('[1]Index = 2019 average'!F67, 1)</f>
+        <v>106.9</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>43882</v>
+        <v>43902</v>
       </c>
       <c r="B64">
-        <f>ROUND('[1]Index = 2019 average'!B65, 1)</f>
-        <v>90.5</v>
+        <f>ROUND('[1]Index = 2019 average'!B68, 1)</f>
+        <v>91.4</v>
       </c>
       <c r="C64">
-        <f>ROUND('[1]Index = 2019 average'!C65, 1)</f>
-        <v>110.7</v>
+        <f>ROUND('[1]Index = 2019 average'!C68, 1)</f>
+        <v>105.4</v>
       </c>
       <c r="D64">
-        <f>ROUND('[1]Index = 2019 average'!D65, 1)</f>
-        <v>98.8</v>
+        <f>ROUND('[1]Index = 2019 average'!D68, 1)</f>
+        <v>117</v>
       </c>
       <c r="E64">
-        <f>ROUND('[1]Index = 2019 average'!E65, 1)</f>
-        <v>82.7</v>
+        <f>ROUND('[1]Index = 2019 average'!E68, 1)</f>
+        <v>79.599999999999994</v>
       </c>
       <c r="F64">
-        <f>ROUND('[1]Index = 2019 average'!F65, 1)</f>
-        <v>98.8</v>
+        <f>ROUND('[1]Index = 2019 average'!F68, 1)</f>
+        <v>98.4</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>43888</v>
+        <v>43910</v>
       </c>
       <c r="B65">
-        <f>ROUND('[1]Index = 2019 average'!B66, 1)</f>
-        <v>94.1</v>
+        <f>ROUND('[1]Index = 2019 average'!B69, 1)</f>
+        <v>88.8</v>
       </c>
       <c r="C65">
-        <f>ROUND('[1]Index = 2019 average'!C66, 1)</f>
-        <v>112.7</v>
+        <f>ROUND('[1]Index = 2019 average'!C69, 1)</f>
+        <v>109.4</v>
       </c>
       <c r="D65">
-        <f>ROUND('[1]Index = 2019 average'!D66, 1)</f>
-        <v>101.3</v>
+        <f>ROUND('[1]Index = 2019 average'!D69, 1)</f>
+        <v>116.4</v>
       </c>
       <c r="E65">
-        <f>ROUND('[1]Index = 2019 average'!E66, 1)</f>
-        <v>87.8</v>
+        <f>ROUND('[1]Index = 2019 average'!E69, 1)</f>
+        <v>76.2</v>
       </c>
       <c r="F65">
-        <f>ROUND('[1]Index = 2019 average'!F66, 1)</f>
-        <v>99.9</v>
+        <f>ROUND('[1]Index = 2019 average'!F69, 1)</f>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>43896</v>
+        <v>43917</v>
       </c>
       <c r="B66">
-        <f>ROUND('[1]Index = 2019 average'!B67, 1)</f>
-        <v>100.7</v>
+        <f>ROUND('[1]Index = 2019 average'!B70, 1)</f>
+        <v>78.099999999999994</v>
       </c>
       <c r="C66">
-        <f>ROUND('[1]Index = 2019 average'!C67, 1)</f>
-        <v>119.6</v>
+        <f>ROUND('[1]Index = 2019 average'!C70, 1)</f>
+        <v>106.8</v>
       </c>
       <c r="D66">
-        <f>ROUND('[1]Index = 2019 average'!D67, 1)</f>
-        <v>123.8</v>
+        <f>ROUND('[1]Index = 2019 average'!D70, 1)</f>
+        <v>111.7</v>
       </c>
       <c r="E66">
-        <f>ROUND('[1]Index = 2019 average'!E67, 1)</f>
-        <v>91.3</v>
+        <f>ROUND('[1]Index = 2019 average'!E70, 1)</f>
+        <v>57.6</v>
       </c>
       <c r="F66">
-        <f>ROUND('[1]Index = 2019 average'!F67, 1)</f>
-        <v>106.9</v>
+        <f>ROUND('[1]Index = 2019 average'!F70, 1)</f>
+        <v>51.5</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>43902</v>
+        <v>43924</v>
       </c>
       <c r="B67">
-        <f>ROUND('[1]Index = 2019 average'!B68, 1)</f>
-        <v>91.4</v>
+        <f>ROUND('[1]Index = 2019 average'!B71, 1)</f>
+        <v>66.599999999999994</v>
       </c>
       <c r="C67">
-        <f>ROUND('[1]Index = 2019 average'!C68, 1)</f>
-        <v>105.4</v>
+        <f>ROUND('[1]Index = 2019 average'!C71, 1)</f>
+        <v>114.1</v>
       </c>
       <c r="D67">
-        <f>ROUND('[1]Index = 2019 average'!D68, 1)</f>
-        <v>117</v>
+        <f>ROUND('[1]Index = 2019 average'!D71, 1)</f>
+        <v>102.4</v>
       </c>
       <c r="E67">
-        <f>ROUND('[1]Index = 2019 average'!E68, 1)</f>
-        <v>79.599999999999994</v>
+        <f>ROUND('[1]Index = 2019 average'!E71, 1)</f>
+        <v>50.9</v>
       </c>
       <c r="F67">
-        <f>ROUND('[1]Index = 2019 average'!F68, 1)</f>
-        <v>98.4</v>
+        <f>ROUND('[1]Index = 2019 average'!F71, 1)</f>
+        <v>44.5</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>43910</v>
+        <v>43930</v>
       </c>
       <c r="B68">
-        <f>ROUND('[1]Index = 2019 average'!B69, 1)</f>
-        <v>88.8</v>
+        <f>ROUND('[1]Index = 2019 average'!B72, 1)</f>
+        <v>60.9</v>
       </c>
       <c r="C68">
-        <f>ROUND('[1]Index = 2019 average'!C69, 1)</f>
-        <v>109.4</v>
+        <f>ROUND('[1]Index = 2019 average'!C72, 1)</f>
+        <v>110.6</v>
       </c>
       <c r="D68">
-        <f>ROUND('[1]Index = 2019 average'!D69, 1)</f>
-        <v>116.4</v>
+        <f>ROUND('[1]Index = 2019 average'!D72, 1)</f>
+        <v>102.6</v>
       </c>
       <c r="E68">
-        <f>ROUND('[1]Index = 2019 average'!E69, 1)</f>
-        <v>76.2</v>
+        <f>ROUND('[1]Index = 2019 average'!E72, 1)</f>
+        <v>37.799999999999997</v>
       </c>
       <c r="F68">
-        <f>ROUND('[1]Index = 2019 average'!F69, 1)</f>
-        <v>71</v>
+        <f>ROUND('[1]Index = 2019 average'!F72, 1)</f>
+        <v>36.299999999999997</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>43917</v>
+        <v>43938</v>
       </c>
       <c r="B69">
-        <f>ROUND('[1]Index = 2019 average'!B70, 1)</f>
-        <v>78.099999999999994</v>
+        <f>ROUND('[1]Index = 2019 average'!B73, 1)</f>
+        <v>52.2</v>
       </c>
       <c r="C69">
-        <f>ROUND('[1]Index = 2019 average'!C70, 1)</f>
-        <v>106.8</v>
+        <f>ROUND('[1]Index = 2019 average'!C73, 1)</f>
+        <v>98.3</v>
       </c>
       <c r="D69">
-        <f>ROUND('[1]Index = 2019 average'!D70, 1)</f>
-        <v>111.7</v>
+        <f>ROUND('[1]Index = 2019 average'!D73, 1)</f>
+        <v>94.9</v>
       </c>
       <c r="E69">
-        <f>ROUND('[1]Index = 2019 average'!E70, 1)</f>
-        <v>57.6</v>
+        <f>ROUND('[1]Index = 2019 average'!E73, 1)</f>
+        <v>29.5</v>
       </c>
       <c r="F69">
-        <f>ROUND('[1]Index = 2019 average'!F70, 1)</f>
-        <v>51.5</v>
+        <f>ROUND('[1]Index = 2019 average'!F73, 1)</f>
+        <v>28.4</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>43924</v>
+        <v>43945</v>
       </c>
       <c r="B70">
-        <f>ROUND('[1]Index = 2019 average'!B71, 1)</f>
-        <v>66.599999999999994</v>
+        <f>ROUND('[1]Index = 2019 average'!B74, 1)</f>
+        <v>45</v>
       </c>
       <c r="C70">
-        <f>ROUND('[1]Index = 2019 average'!C71, 1)</f>
-        <v>114.1</v>
+        <f>ROUND('[1]Index = 2019 average'!C74, 1)</f>
+        <v>98.6</v>
       </c>
       <c r="D70">
-        <f>ROUND('[1]Index = 2019 average'!D71, 1)</f>
-        <v>102.4</v>
+        <f>ROUND('[1]Index = 2019 average'!D74, 1)</f>
+        <v>78.2</v>
       </c>
       <c r="E70">
-        <f>ROUND('[1]Index = 2019 average'!E71, 1)</f>
-        <v>50.9</v>
+        <f>ROUND('[1]Index = 2019 average'!E74, 1)</f>
+        <v>26.4</v>
       </c>
       <c r="F70">
-        <f>ROUND('[1]Index = 2019 average'!F71, 1)</f>
-        <v>44.5</v>
+        <f>ROUND('[1]Index = 2019 average'!F74, 1)</f>
+        <v>25.5</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>43930</v>
+        <v>43952</v>
       </c>
       <c r="B71">
-        <f>ROUND('[1]Index = 2019 average'!B72, 1)</f>
-        <v>60.9</v>
+        <f>ROUND('[1]Index = 2019 average'!B75, 1)</f>
+        <v>41.8</v>
       </c>
       <c r="C71">
-        <f>ROUND('[1]Index = 2019 average'!C72, 1)</f>
-        <v>110.6</v>
+        <f>ROUND('[1]Index = 2019 average'!C75, 1)</f>
+        <v>100.9</v>
       </c>
       <c r="D71">
-        <f>ROUND('[1]Index = 2019 average'!D72, 1)</f>
-        <v>102.6</v>
+        <f>ROUND('[1]Index = 2019 average'!D75, 1)</f>
+        <v>77.3</v>
       </c>
       <c r="E71">
-        <f>ROUND('[1]Index = 2019 average'!E72, 1)</f>
-        <v>37.799999999999997</v>
+        <f>ROUND('[1]Index = 2019 average'!E75, 1)</f>
+        <v>23.1</v>
       </c>
       <c r="F71">
-        <f>ROUND('[1]Index = 2019 average'!F72, 1)</f>
-        <v>36.299999999999997</v>
+        <f>ROUND('[1]Index = 2019 average'!F75, 1)</f>
+        <v>24.8</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>43938</v>
+        <v>43958</v>
       </c>
       <c r="B72">
-        <f>ROUND('[1]Index = 2019 average'!B73, 1)</f>
-        <v>52.2</v>
+        <f>ROUND('[1]Index = 2019 average'!B76, 1)</f>
+        <v>43</v>
       </c>
       <c r="C72">
-        <f>ROUND('[1]Index = 2019 average'!C73, 1)</f>
-        <v>98.3</v>
+        <f>ROUND('[1]Index = 2019 average'!C76, 1)</f>
+        <v>102.8</v>
       </c>
       <c r="D72">
-        <f>ROUND('[1]Index = 2019 average'!D73, 1)</f>
-        <v>94.9</v>
+        <f>ROUND('[1]Index = 2019 average'!D76, 1)</f>
+        <v>77.7</v>
       </c>
       <c r="E72">
-        <f>ROUND('[1]Index = 2019 average'!E73, 1)</f>
-        <v>29.5</v>
+        <f>ROUND('[1]Index = 2019 average'!E76, 1)</f>
+        <v>24.6</v>
       </c>
       <c r="F72">
-        <f>ROUND('[1]Index = 2019 average'!F73, 1)</f>
-        <v>28.4</v>
+        <f>ROUND('[1]Index = 2019 average'!F76, 1)</f>
+        <v>24.6</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>43945</v>
+        <v>43966</v>
       </c>
       <c r="B73">
-        <f>ROUND('[1]Index = 2019 average'!B74, 1)</f>
-        <v>45</v>
+        <f>ROUND('[1]Index = 2019 average'!B77, 1)</f>
+        <v>41.9</v>
       </c>
       <c r="C73">
-        <f>ROUND('[1]Index = 2019 average'!C74, 1)</f>
-        <v>98.6</v>
+        <f>ROUND('[1]Index = 2019 average'!C77, 1)</f>
+        <v>93.6</v>
       </c>
       <c r="D73">
-        <f>ROUND('[1]Index = 2019 average'!D74, 1)</f>
-        <v>78.2</v>
+        <f>ROUND('[1]Index = 2019 average'!D77, 1)</f>
+        <v>71.099999999999994</v>
       </c>
       <c r="E73">
-        <f>ROUND('[1]Index = 2019 average'!E74, 1)</f>
-        <v>26.4</v>
+        <f>ROUND('[1]Index = 2019 average'!E77, 1)</f>
+        <v>23.2</v>
       </c>
       <c r="F73">
-        <f>ROUND('[1]Index = 2019 average'!F74, 1)</f>
-        <v>25.5</v>
+        <f>ROUND('[1]Index = 2019 average'!F77, 1)</f>
+        <v>23.1</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>43952</v>
+        <v>43973</v>
       </c>
       <c r="B74">
-        <f>ROUND('[1]Index = 2019 average'!B75, 1)</f>
-        <v>41.8</v>
-      </c>
-      <c r="C74">
-        <f>ROUND('[1]Index = 2019 average'!C75, 1)</f>
-        <v>100.9</v>
-      </c>
-      <c r="D74">
-        <f>ROUND('[1]Index = 2019 average'!D75, 1)</f>
-        <v>77.3</v>
-      </c>
-      <c r="E74">
-        <f>ROUND('[1]Index = 2019 average'!E75, 1)</f>
-        <v>23.1</v>
-      </c>
-      <c r="F74">
-        <f>ROUND('[1]Index = 2019 average'!F75, 1)</f>
-        <v>24.8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>43958</v>
-      </c>
-      <c r="B75">
-        <f>ROUND('[1]Index = 2019 average'!B76, 1)</f>
-        <v>43</v>
-      </c>
-      <c r="C75">
-        <f>ROUND('[1]Index = 2019 average'!C76, 1)</f>
-        <v>102.8</v>
-      </c>
-      <c r="D75">
-        <f>ROUND('[1]Index = 2019 average'!D76, 1)</f>
-        <v>77.7</v>
-      </c>
-      <c r="E75">
-        <f>ROUND('[1]Index = 2019 average'!E76, 1)</f>
-        <v>24.6</v>
-      </c>
-      <c r="F75">
-        <f>ROUND('[1]Index = 2019 average'!F76, 1)</f>
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>43966</v>
-      </c>
-      <c r="B76">
-        <f>ROUND('[1]Index = 2019 average'!B77, 1)</f>
-        <v>41.9</v>
-      </c>
-      <c r="C76">
-        <f>ROUND('[1]Index = 2019 average'!C77, 1)</f>
-        <v>93.6</v>
-      </c>
-      <c r="D76">
-        <f>ROUND('[1]Index = 2019 average'!D77, 1)</f>
-        <v>71.099999999999994</v>
-      </c>
-      <c r="E76">
-        <f>ROUND('[1]Index = 2019 average'!E77, 1)</f>
-        <v>23.2</v>
-      </c>
-      <c r="F76">
-        <f>ROUND('[1]Index = 2019 average'!F77, 1)</f>
-        <v>23.1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>43973</v>
-      </c>
-      <c r="B77">
         <f>ROUND('[1]Index = 2019 average'!B78, 1)</f>
         <v>43.3</v>
       </c>
-      <c r="C77">
+      <c r="C74">
         <f>ROUND('[1]Index = 2019 average'!C78, 1)</f>
         <v>94.8</v>
       </c>
-      <c r="D77">
+      <c r="D74">
         <f>ROUND('[1]Index = 2019 average'!D78, 1)</f>
         <v>78.3</v>
       </c>
-      <c r="E77">
+      <c r="E74">
         <f>ROUND('[1]Index = 2019 average'!E78, 1)</f>
         <v>25.4</v>
       </c>
-      <c r="F77">
+      <c r="F74">
         <f>ROUND('[1]Index = 2019 average'!F78, 1)</f>
         <v>22.4</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4047,19 +4022,19 @@
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC4DD3B4-634A-4298-8797-D32F8E46BDA4}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="37655e2e-3ff4-440c-aed8-80b3c3e7d4fa"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="11db2dc9-1d1c-45eb-8b5b-ac58ae3319db"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="37655e2e-3ff4-440c-aed8-80b3c3e7d4fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="11db2dc9-1d1c-45eb-8b5b-ac58ae3319db"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="e14115de-03ae-49b5-af01-31035404c456"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
